--- a/biology/Botanique/Germandrée/Germandrée.xlsx
+++ b/biology/Botanique/Germandrée/Germandrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e</t>
+          <t>Germandrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium
 Le genre Teucrium, les germandrées, regroupe environ 260 espèces de plantes herbacées ou de sous-arbrisseaux de la famille des Lamiacées. On les retrouve un peu partout à travers le monde, mais elles sont particulièrement nombreuses dans le bassin méditerranéen.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e</t>
+          <t>Germandrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom français Germandrée est une altération du latin médiéval calamendria, croisement probable de calamentum, sorte de menthe, avec camedria, latinisation du grec chamaedrys signifiant littéralement "chêne à terre" (en référence à la germandrée petit-chêne). Le nom scientifique du genre, Teucrium, provient du grec Teucros, nom d'un prince troyen qui aurait découvert les propriétés médicinales de la plante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom français Germandrée est une altération du latin médiéval calamendria, croisement probable de calamentum, sorte de menthe, avec camedria, latinisation du grec chamaedrys signifiant littéralement "chêne à terre" (en référence à la germandrée petit-chêne). Le nom scientifique du genre, Teucrium, provient du grec Teucros, nom d'un prince troyen qui aurait découvert les propriétés médicinales de la plante.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e</t>
+          <t>Germandrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes stolonifères ou rhizomateuses à feuilles opposées. L'inflorescence est un racème de verticillastres, chacun de ceux-ci portant deux à six fleurs. Les quatre étamines, dont deux sont plus longues que les autres, font saillie à partir du sinus supérieur de la corolle. La partie antérieure du calice est renflée à la base.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e</t>
+          <t>Germandrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Teucrium ajugaceum F.M.Bailey &amp; F.Muell. ex F.M.Bailey
 Teucrium almeriense C. E. Hubb. &amp; Sandwith
@@ -613,7 +631,7 @@
 			Teucrium creticum ou Germandrée à feuilles de romarin
 			Teucrium chamaedrys prostratum ou Germandrée petit chêne
 			Teucrium lamiifolium (Israël)
-Pourrait appartenir à ce genre bien que nommée aussi Menthe des montagnes, la plante qui sous le nom de Pouliot des montagnes était un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle [2].
+Pourrait appartenir à ce genre bien que nommée aussi Menthe des montagnes, la plante qui sous le nom de Pouliot des montagnes était un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle .
 </t>
         </is>
       </c>
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Germandr%C3%A9e</t>
+          <t>Germandrée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,9 +660,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2011)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2011) :
 Teucrium abutiloides L'Hér. (1788)
 Teucrium africanum Thunb. (1800)
 Teucrium afrum (Emb. &amp; Maire) Pau &amp; Font Quer (1928)
